--- a/file/CropWat/Group Information.xlsx
+++ b/file/CropWat/Group Information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pooya\Documents\GitHub\createMyWebsite\content\file\CropWat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\shirazipooya\shirazipooya.github.io\file\CropWat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA714422-A013-4F7E-BACE-A56551A6E05F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A0EC82-B5D5-4F54-96D1-7B3C8EF954E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -701,7 +701,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -717,6 +717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -790,14 +796,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,7 +810,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -819,22 +831,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3279C9-2789-4850-BC07-F60DFBA71EF1}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52:I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1131,98 +1140,98 @@
     <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="47.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="44.44140625" style="6" customWidth="1"/>
-    <col min="12" max="18" width="8.88671875" style="6"/>
+    <col min="8" max="8" width="47.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="44.44140625" style="4" customWidth="1"/>
+    <col min="12" max="18" width="8.88671875" style="4"/>
     <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="10" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="13" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="7" t="s">
         <v>150</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1234,30 +1243,30 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
@@ -1267,16 +1276,16 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1288,30 +1297,30 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
@@ -1321,16 +1330,16 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1342,30 +1351,30 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="2" t="s">
         <v>50</v>
       </c>
@@ -1375,16 +1384,16 @@
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1396,30 +1405,30 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1429,16 +1438,16 @@
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="15">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1450,30 +1459,30 @@
       <c r="D12" s="2">
         <v>1</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
@@ -1483,16 +1492,16 @@
       <c r="D13" s="2">
         <v>1</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="15">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1504,30 +1513,30 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
@@ -1537,16 +1546,16 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="15">
         <v>7</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1558,30 +1567,30 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2" t="s">
         <v>61</v>
       </c>
@@ -1591,16 +1600,16 @@
       <c r="D17" s="2">
         <v>21</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="15">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1612,30 +1621,30 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
@@ -1645,16 +1654,16 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="15">
         <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1666,30 +1675,30 @@
       <c r="D20" s="2">
         <v>21</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2" t="s">
         <v>66</v>
       </c>
@@ -1699,16 +1708,16 @@
       <c r="D21" s="2">
         <v>21</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="15">
         <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1720,30 +1729,30 @@
       <c r="D22" s="2">
         <v>11</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J22" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
@@ -1753,16 +1762,16 @@
       <c r="D23" s="2">
         <v>11</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="15">
         <v>11</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1774,30 +1783,30 @@
       <c r="D24" s="2">
         <v>11</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="J24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="2" t="s">
         <v>73</v>
       </c>
@@ -1807,16 +1816,16 @@
       <c r="D25" s="2">
         <v>11</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="15">
         <v>12</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -1828,30 +1837,30 @@
       <c r="D26" s="2">
         <v>11</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
@@ -1861,16 +1870,16 @@
       <c r="D27" s="2">
         <v>11</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28" s="15">
         <v>13</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -1882,30 +1891,30 @@
       <c r="D28" s="2">
         <v>11</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H28" s="7" t="s">
+      <c r="H28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -1915,16 +1924,16 @@
       <c r="D29" s="2">
         <v>11</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30" s="15">
         <v>14</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -1936,30 +1945,30 @@
       <c r="D30" s="2">
         <v>11</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="2" t="s">
         <v>81</v>
       </c>
@@ -1969,16 +1978,16 @@
       <c r="D31" s="2">
         <v>11</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32" s="15">
         <v>15</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -1990,30 +1999,30 @@
       <c r="D32" s="2">
         <v>11</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I32" s="7" t="s">
+      <c r="I32" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="K32" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
@@ -2023,16 +2032,16 @@
       <c r="D33" s="2">
         <v>21</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34" s="15">
         <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -2044,30 +2053,30 @@
       <c r="D34" s="2">
         <v>11</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="7" t="s">
+      <c r="I34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="2" t="s">
         <v>87</v>
       </c>
@@ -2077,16 +2086,16 @@
       <c r="D35" s="2">
         <v>11</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="15">
         <v>17</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -2098,30 +2107,30 @@
       <c r="D36" s="2">
         <v>21</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="7" t="s">
+      <c r="I36" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="J36" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="2" t="s">
         <v>90</v>
       </c>
@@ -2131,16 +2140,16 @@
       <c r="D37" s="2">
         <v>21</v>
       </c>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="15">
         <v>18</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -2152,30 +2161,30 @@
       <c r="D38" s="2">
         <v>21</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I38" s="7" t="s">
+      <c r="I38" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
+      <c r="A39" s="15"/>
       <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
@@ -2185,16 +2194,16 @@
       <c r="D39" s="2">
         <v>21</v>
       </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="15">
         <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -2206,30 +2215,30 @@
       <c r="D40" s="2">
         <v>21</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
+      <c r="A41" s="15"/>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
@@ -2239,16 +2248,16 @@
       <c r="D41" s="2">
         <v>21</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="15">
         <v>20</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -2260,30 +2269,30 @@
       <c r="D42" s="2">
         <v>21</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H42" s="7" t="s">
+      <c r="H42" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>99</v>
       </c>
@@ -2293,16 +2302,16 @@
       <c r="D43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44" s="15">
         <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -2314,30 +2323,30 @@
       <c r="D44" s="2">
         <v>21</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
@@ -2347,16 +2356,16 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+      <c r="A46" s="16">
         <v>22</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -2368,30 +2377,30 @@
       <c r="D46" s="2">
         <v>19</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="2" t="s">
         <v>107</v>
       </c>
@@ -2401,16 +2410,16 @@
       <c r="D47" s="2">
         <v>19</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48" s="16">
         <v>23</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -2422,30 +2431,30 @@
       <c r="D48" s="2">
         <v>19</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
@@ -2455,16 +2464,16 @@
       <c r="D49" s="2">
         <v>19</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="A50" s="16">
         <v>24</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -2476,30 +2485,30 @@
       <c r="D50" s="2">
         <v>19</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E50" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="2" t="s">
         <v>112</v>
       </c>
@@ -2509,16 +2518,16 @@
       <c r="D51" s="2">
         <v>19</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="A52" s="16">
         <v>25</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -2530,30 +2539,30 @@
       <c r="D52" s="2">
         <v>19</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
@@ -2563,16 +2572,16 @@
       <c r="D53" s="2">
         <v>9</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54" s="15">
         <v>26</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -2584,30 +2593,30 @@
       <c r="D54" s="2">
         <v>19</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="2" t="s">
         <v>117</v>
       </c>
@@ -2617,16 +2626,16 @@
       <c r="D55" s="2">
         <v>19</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="A56" s="16">
         <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -2638,30 +2647,30 @@
       <c r="D56" s="2">
         <v>19</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
@@ -2671,16 +2680,16 @@
       <c r="D57" s="2">
         <v>19</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+      <c r="A58" s="15">
         <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -2692,30 +2701,30 @@
       <c r="D58" s="2">
         <v>9</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="2" t="s">
         <v>122</v>
       </c>
@@ -2725,16 +2734,16 @@
       <c r="D59" s="2">
         <v>2</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60" s="16">
         <v>29</v>
       </c>
       <c r="B60" s="2" t="s">
@@ -2746,30 +2755,30 @@
       <c r="D60" s="2">
         <v>9</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
@@ -2779,16 +2788,16 @@
       <c r="D61" s="2">
         <v>9</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="A62" s="16">
         <v>30</v>
       </c>
       <c r="B62" s="2" t="s">
@@ -2800,30 +2809,30 @@
       <c r="D62" s="2">
         <v>9</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
@@ -2833,16 +2842,16 @@
       <c r="D63" s="2">
         <v>9</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+      <c r="A64" s="16">
         <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -2854,30 +2863,30 @@
       <c r="D64" s="2">
         <v>9</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" s="8" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
+      <c r="A65" s="16"/>
       <c r="B65" s="2" t="s">
         <v>131</v>
       </c>
@@ -2887,16 +2896,16 @@
       <c r="D65" s="2">
         <v>9</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="A66" s="16">
         <v>32</v>
       </c>
       <c r="B66" s="2" t="s">
@@ -2908,30 +2917,30 @@
       <c r="D66" s="2">
         <v>9</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K66" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="4"/>
+      <c r="A67" s="16"/>
       <c r="B67" s="2" t="s">
         <v>134</v>
       </c>
@@ -2941,16 +2950,16 @@
       <c r="D67" s="2">
         <v>9</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+      <c r="A68" s="16">
         <v>33</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -2962,30 +2971,30 @@
       <c r="D68" s="2">
         <v>2</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K68" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="4"/>
+      <c r="A69" s="16"/>
       <c r="B69" s="2" t="s">
         <v>137</v>
       </c>
@@ -2995,16 +3004,16 @@
       <c r="D69" s="2">
         <v>2</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="16">
         <v>34</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -3016,30 +3025,30 @@
       <c r="D70" s="2">
         <v>2</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K70" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
+      <c r="A71" s="16"/>
       <c r="B71" s="2" t="s">
         <v>139</v>
       </c>
@@ -3049,16 +3058,16 @@
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="16">
         <v>35</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -3070,30 +3079,30 @@
       <c r="D72" s="2">
         <v>2</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="H72" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="I72" s="7" t="s">
+      <c r="I72" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="K72" s="7" t="s">
+      <c r="K72" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
+      <c r="A73" s="16"/>
       <c r="B73" s="2" t="s">
         <v>141</v>
       </c>
@@ -3103,125 +3112,361 @@
       <c r="D73" s="2">
         <v>2</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
+      <c r="A74" s="14"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
+      <c r="A75" s="14"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
+      <c r="A76" s="14"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
+      <c r="A77" s="14"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
+      <c r="A79" s="14"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
+      <c r="A80" s="14"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
+      <c r="A81" s="14"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
+      <c r="A82" s="14"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
+      <c r="A83" s="14"/>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
+      <c r="A84" s="14"/>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="5"/>
+      <c r="A91" s="14"/>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
+      <c r="A92" s="14"/>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
+      <c r="A93" s="14"/>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
+      <c r="A94" s="14"/>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
+      <c r="A95" s="14"/>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
+      <c r="A96" s="14"/>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
+      <c r="A97" s="14"/>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
+      <c r="A98" s="14"/>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
+      <c r="A99" s="14"/>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
+      <c r="A100" s="14"/>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
+      <c r="A101" s="14"/>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
+      <c r="A102" s="14"/>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="5"/>
+      <c r="A103" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="298">
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I57"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="I62:I63"/>
@@ -3246,261 +3491,25 @@
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="F34:F35"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="F70:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
